--- a/biology/Histoire de la zoologie et de la botanique/Alfredo_Dugès/Alfredo_Dugès.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alfredo_Dugès/Alfredo_Dugès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alfredo_Dug%C3%A8s</t>
+          <t>Alfredo_Dugès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfredo Dugès, né Alfred Auguste Delzescauts-Dugès, est un  zoologiste mexicain d’origine française, né le 16 avril 1826 à Montpellier (Hérault)[1] et mort le 7 janvier 1910 à Guanajuato au Mexique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfredo Dugès, né Alfred Auguste Delzescauts-Dugès, est un  zoologiste mexicain d’origine française, né le 16 avril 1826 à Montpellier (Hérault) et mort le 7 janvier 1910 à Guanajuato au Mexique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alfredo_Dug%C3%A8s</t>
+          <t>Alfredo_Dugès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est le médecin et naturaliste Antoine Louis Dugès (1797-1838), qui enseigne à la Faculté de Médecine de Montpellier et qui a fait paraître quelques travaux sur l’ostéologie des amphibiens.
 Alfred Dugès obtient son titre de docteur en médecine à l’université de Paris en 1852 et émigre au Mexique. Il s’installe à Guanajuato et devient obstétricien. Parallèlement à ses activités médicales, il enseigne l’histoire naturelle à l’école d’enseignement supérieur de la ville (devenu aujourd’hui une université) et est le directeur de son muséum (depuis rebaptisé Museo Alfredo Dugès).
